--- a/AAII_Financials/Quarterly/GLPG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GLPG_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,111 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>156600</v>
+        <v>121200</v>
       </c>
       <c r="E8" s="3">
-        <v>156200</v>
+        <v>159400</v>
       </c>
       <c r="F8" s="3">
-        <v>152400</v>
+        <v>159000</v>
       </c>
       <c r="G8" s="3">
-        <v>195100</v>
+        <v>155100</v>
       </c>
       <c r="H8" s="3">
-        <v>81500</v>
+        <v>198600</v>
       </c>
       <c r="I8" s="3">
-        <v>162000</v>
+        <v>82900</v>
       </c>
       <c r="J8" s="3">
+        <v>164900</v>
+      </c>
+      <c r="K8" s="3">
         <v>131400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>171100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="E9" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F9" s="3">
         <v>2800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>600</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
@@ -771,28 +777,31 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>154100</v>
+        <v>116700</v>
       </c>
       <c r="E10" s="3">
-        <v>153400</v>
+        <v>156800</v>
       </c>
       <c r="F10" s="3">
-        <v>149300</v>
+        <v>156100</v>
       </c>
       <c r="G10" s="3">
-        <v>194100</v>
+        <v>151900</v>
       </c>
       <c r="H10" s="3">
-        <v>80900</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
+        <v>197500</v>
+      </c>
+      <c r="I10" s="3">
+        <v>82400</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
@@ -800,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>113300</v>
+        <v>136500</v>
       </c>
       <c r="E12" s="3">
-        <v>122900</v>
+        <v>115300</v>
       </c>
       <c r="F12" s="3">
-        <v>96900</v>
+        <v>125100</v>
       </c>
       <c r="G12" s="3">
-        <v>120300</v>
+        <v>98600</v>
       </c>
       <c r="H12" s="3">
-        <v>115500</v>
+        <v>122400</v>
       </c>
       <c r="I12" s="3">
-        <v>146900</v>
+        <v>117600</v>
       </c>
       <c r="J12" s="3">
+        <v>149500</v>
+      </c>
+      <c r="K12" s="3">
         <v>137500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>132800</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>28200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>28800</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
@@ -900,22 +919,25 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F15" s="3">
         <v>6200</v>
       </c>
-      <c r="E15" s="3">
-        <v>6100</v>
-      </c>
-      <c r="F15" s="3">
-        <v>5800</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
+      <c r="G15" s="3">
+        <v>5900</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
@@ -929,8 +951,11 @@
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>196400</v>
+        <v>263800</v>
       </c>
       <c r="E17" s="3">
-        <v>236900</v>
+        <v>199900</v>
       </c>
       <c r="F17" s="3">
-        <v>174800</v>
+        <v>241100</v>
       </c>
       <c r="G17" s="3">
-        <v>184300</v>
+        <v>177900</v>
       </c>
       <c r="H17" s="3">
-        <v>164200</v>
+        <v>187600</v>
       </c>
       <c r="I17" s="3">
-        <v>211400</v>
+        <v>167100</v>
       </c>
       <c r="J17" s="3">
+        <v>215200</v>
+      </c>
+      <c r="K17" s="3">
         <v>185100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>187400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-39800</v>
+        <v>-142600</v>
       </c>
       <c r="E18" s="3">
-        <v>-80700</v>
+        <v>-40500</v>
       </c>
       <c r="F18" s="3">
-        <v>-22400</v>
+        <v>-82200</v>
       </c>
       <c r="G18" s="3">
-        <v>10700</v>
+        <v>-22800</v>
       </c>
       <c r="H18" s="3">
-        <v>-82700</v>
+        <v>10900</v>
       </c>
       <c r="I18" s="3">
-        <v>-49400</v>
+        <v>-84200</v>
       </c>
       <c r="J18" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-53700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,80 +1042,87 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>65200</v>
+        <v>-79800</v>
       </c>
       <c r="E20" s="3">
-        <v>63700</v>
+        <v>66300</v>
       </c>
       <c r="F20" s="3">
-        <v>12300</v>
+        <v>64900</v>
       </c>
       <c r="G20" s="3">
-        <v>9400</v>
+        <v>12500</v>
       </c>
       <c r="H20" s="3">
-        <v>14500</v>
+        <v>9600</v>
       </c>
       <c r="I20" s="3">
-        <v>-19300</v>
+        <v>14800</v>
       </c>
       <c r="J20" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="K20" s="3">
         <v>40300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-50700</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>31600</v>
+        <v>-199100</v>
       </c>
       <c r="E21" s="3">
-        <v>17300</v>
+        <v>32100</v>
       </c>
       <c r="F21" s="3">
-        <v>-4200</v>
+        <v>17600</v>
       </c>
       <c r="G21" s="3">
-        <v>26100</v>
+        <v>-4300</v>
       </c>
       <c r="H21" s="3">
-        <v>-59700</v>
+        <v>26600</v>
       </c>
       <c r="I21" s="3">
-        <v>-51800</v>
+        <v>-60700</v>
       </c>
       <c r="J21" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-8100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-61200</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="E22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F22" s="3">
         <v>2300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2200</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>5</v>
@@ -1097,66 +1136,75 @@
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>23500</v>
+        <v>-223600</v>
       </c>
       <c r="E23" s="3">
-        <v>-19300</v>
+        <v>24000</v>
       </c>
       <c r="F23" s="3">
-        <v>-12300</v>
+        <v>-19600</v>
       </c>
       <c r="G23" s="3">
-        <v>20200</v>
+        <v>-12500</v>
       </c>
       <c r="H23" s="3">
-        <v>-68200</v>
+        <v>20600</v>
       </c>
       <c r="I23" s="3">
-        <v>-68700</v>
+        <v>-69400</v>
       </c>
       <c r="J23" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-13400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-67000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
-        <v>1800</v>
-      </c>
       <c r="G24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H24" s="3">
         <v>2900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>22800</v>
+        <v>-223100</v>
       </c>
       <c r="E26" s="3">
-        <v>-20100</v>
+        <v>23200</v>
       </c>
       <c r="F26" s="3">
-        <v>-14100</v>
+        <v>-20500</v>
       </c>
       <c r="G26" s="3">
-        <v>17300</v>
+        <v>-14300</v>
       </c>
       <c r="H26" s="3">
-        <v>-68400</v>
+        <v>17600</v>
       </c>
       <c r="I26" s="3">
-        <v>-68100</v>
+        <v>-69600</v>
       </c>
       <c r="J26" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-13600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>22800</v>
+        <v>-223100</v>
       </c>
       <c r="E27" s="3">
-        <v>-20100</v>
+        <v>23200</v>
       </c>
       <c r="F27" s="3">
-        <v>-14100</v>
+        <v>-20500</v>
       </c>
       <c r="G27" s="3">
-        <v>17300</v>
+        <v>-14300</v>
       </c>
       <c r="H27" s="3">
-        <v>-68400</v>
+        <v>17600</v>
       </c>
       <c r="I27" s="3">
-        <v>-68100</v>
+        <v>-69600</v>
       </c>
       <c r="J27" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-13600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,13 +1355,16 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>23500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-65200</v>
+        <v>79800</v>
       </c>
       <c r="E32" s="3">
-        <v>-63700</v>
+        <v>-66300</v>
       </c>
       <c r="F32" s="3">
-        <v>-12300</v>
+        <v>-64900</v>
       </c>
       <c r="G32" s="3">
-        <v>-9400</v>
+        <v>-12500</v>
       </c>
       <c r="H32" s="3">
-        <v>-14500</v>
+        <v>-9600</v>
       </c>
       <c r="I32" s="3">
-        <v>19300</v>
+        <v>-14800</v>
       </c>
       <c r="J32" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-40300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>22800</v>
+        <v>-223100</v>
       </c>
       <c r="E33" s="3">
-        <v>-20100</v>
+        <v>23200</v>
       </c>
       <c r="F33" s="3">
-        <v>-14100</v>
+        <v>-20500</v>
       </c>
       <c r="G33" s="3">
-        <v>17300</v>
+        <v>-14300</v>
       </c>
       <c r="H33" s="3">
-        <v>-68400</v>
+        <v>17600</v>
       </c>
       <c r="I33" s="3">
-        <v>-68100</v>
+        <v>-69600</v>
       </c>
       <c r="J33" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="K33" s="3">
         <v>9900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-61200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>22800</v>
+        <v>-223100</v>
       </c>
       <c r="E35" s="3">
-        <v>-20100</v>
+        <v>23200</v>
       </c>
       <c r="F35" s="3">
-        <v>-14100</v>
+        <v>-20500</v>
       </c>
       <c r="G35" s="3">
-        <v>17300</v>
+        <v>-14300</v>
       </c>
       <c r="H35" s="3">
-        <v>-68400</v>
+        <v>17600</v>
       </c>
       <c r="I35" s="3">
-        <v>-68100</v>
+        <v>-69600</v>
       </c>
       <c r="J35" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="K35" s="3">
         <v>9900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-61200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,112 +1619,122 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>465800</v>
+        <v>493300</v>
       </c>
       <c r="E41" s="3">
-        <v>513200</v>
+        <v>474100</v>
       </c>
       <c r="F41" s="3">
-        <v>498000</v>
+        <v>522300</v>
       </c>
       <c r="G41" s="3">
-        <v>1297000</v>
+        <v>506900</v>
       </c>
       <c r="H41" s="3">
-        <v>1217100</v>
+        <v>1320100</v>
       </c>
       <c r="I41" s="3">
-        <v>1302400</v>
+        <v>1238800</v>
       </c>
       <c r="J41" s="3">
+        <v>1325600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1265300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1311900</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4149300</v>
+        <v>3915500</v>
       </c>
       <c r="E42" s="3">
-        <v>4172700</v>
+        <v>4223400</v>
       </c>
       <c r="F42" s="3">
-        <v>4414700</v>
+        <v>4247200</v>
       </c>
       <c r="G42" s="3">
-        <v>3679000</v>
+        <v>4493600</v>
       </c>
       <c r="H42" s="3">
-        <v>3939800</v>
+        <v>3744700</v>
       </c>
       <c r="I42" s="3">
-        <v>3994600</v>
+        <v>4010100</v>
       </c>
       <c r="J42" s="3">
+        <v>4066000</v>
+      </c>
+      <c r="K42" s="3">
         <v>4146100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4148900</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>57500</v>
+        <v>71700</v>
       </c>
       <c r="E43" s="3">
-        <v>67800</v>
+        <v>58600</v>
       </c>
       <c r="F43" s="3">
-        <v>83100</v>
+        <v>69000</v>
       </c>
       <c r="G43" s="3">
-        <v>135600</v>
+        <v>84600</v>
       </c>
       <c r="H43" s="3">
-        <v>134200</v>
+        <v>138000</v>
       </c>
       <c r="I43" s="3">
-        <v>120200</v>
+        <v>136600</v>
       </c>
       <c r="J43" s="3">
+        <v>122300</v>
+      </c>
+      <c r="K43" s="3">
         <v>190800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>182500</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>27000</v>
+        <v>57000</v>
       </c>
       <c r="E44" s="3">
-        <v>28600</v>
+        <v>27500</v>
       </c>
       <c r="F44" s="3">
-        <v>19500</v>
+        <v>29100</v>
       </c>
       <c r="G44" s="3">
-        <v>21800</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
+        <v>19800</v>
+      </c>
+      <c r="H44" s="3">
+        <v>22200</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
@@ -1650,153 +1745,171 @@
       <c r="K44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21600</v>
+        <v>25100</v>
       </c>
       <c r="E45" s="3">
-        <v>13900</v>
+        <v>22000</v>
       </c>
       <c r="F45" s="3">
-        <v>11000</v>
+        <v>14200</v>
       </c>
       <c r="G45" s="3">
-        <v>10500</v>
+        <v>11200</v>
       </c>
       <c r="H45" s="3">
-        <v>15900</v>
+        <v>10700</v>
       </c>
       <c r="I45" s="3">
-        <v>9800</v>
+        <v>16200</v>
       </c>
       <c r="J45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K45" s="3">
         <v>16800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4721200</v>
+        <v>4562700</v>
       </c>
       <c r="E46" s="3">
-        <v>4796100</v>
+        <v>4805600</v>
       </c>
       <c r="F46" s="3">
-        <v>5026200</v>
+        <v>4881800</v>
       </c>
       <c r="G46" s="3">
-        <v>5143800</v>
+        <v>5116000</v>
       </c>
       <c r="H46" s="3">
-        <v>5306900</v>
+        <v>5235700</v>
       </c>
       <c r="I46" s="3">
-        <v>5427000</v>
+        <v>5401700</v>
       </c>
       <c r="J46" s="3">
+        <v>5524000</v>
+      </c>
+      <c r="K46" s="3">
         <v>5619000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5680800</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>141600</v>
+        <v>129200</v>
       </c>
       <c r="E47" s="3">
-        <v>147000</v>
+        <v>144200</v>
       </c>
       <c r="F47" s="3">
-        <v>140300</v>
+        <v>149600</v>
       </c>
       <c r="G47" s="3">
-        <v>134600</v>
+        <v>142900</v>
       </c>
       <c r="H47" s="3">
-        <v>131000</v>
+        <v>137000</v>
       </c>
       <c r="I47" s="3">
-        <v>124100</v>
+        <v>133300</v>
       </c>
       <c r="J47" s="3">
+        <v>126300</v>
+      </c>
+      <c r="K47" s="3">
         <v>125100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>171000</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>159100</v>
+        <v>166100</v>
       </c>
       <c r="E48" s="3">
-        <v>157500</v>
+        <v>162000</v>
       </c>
       <c r="F48" s="3">
-        <v>154400</v>
+        <v>160300</v>
       </c>
       <c r="G48" s="3">
-        <v>145500</v>
+        <v>157100</v>
       </c>
       <c r="H48" s="3">
-        <v>130800</v>
+        <v>148100</v>
       </c>
       <c r="I48" s="3">
-        <v>118400</v>
+        <v>133100</v>
       </c>
       <c r="J48" s="3">
+        <v>120500</v>
+      </c>
+      <c r="K48" s="3">
         <v>117700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>109400</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>225900</v>
+        <v>232800</v>
       </c>
       <c r="E49" s="3">
-        <v>218600</v>
+        <v>229900</v>
       </c>
       <c r="F49" s="3">
-        <v>62600</v>
+        <v>222500</v>
       </c>
       <c r="G49" s="3">
-        <v>63600</v>
+        <v>63700</v>
       </c>
       <c r="H49" s="3">
-        <v>63100</v>
+        <v>64700</v>
       </c>
       <c r="I49" s="3">
-        <v>66700</v>
+        <v>64200</v>
       </c>
       <c r="J49" s="3">
+        <v>67900</v>
+      </c>
+      <c r="K49" s="3">
         <v>69600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12600</v>
+        <v>7700</v>
       </c>
       <c r="E52" s="3">
-        <v>13200</v>
+        <v>12800</v>
       </c>
       <c r="F52" s="3">
-        <v>12600</v>
+        <v>13400</v>
       </c>
       <c r="G52" s="3">
-        <v>6900</v>
+        <v>12800</v>
       </c>
       <c r="H52" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K52" s="3">
         <v>9400</v>
       </c>
-      <c r="I52" s="3">
-        <v>9400</v>
-      </c>
-      <c r="J52" s="3">
-        <v>9400</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5260500</v>
+        <v>5098400</v>
       </c>
       <c r="E54" s="3">
-        <v>5332400</v>
+        <v>5354400</v>
       </c>
       <c r="F54" s="3">
-        <v>5396100</v>
+        <v>5427700</v>
       </c>
       <c r="G54" s="3">
-        <v>5494400</v>
+        <v>5492500</v>
       </c>
       <c r="H54" s="3">
-        <v>5641200</v>
+        <v>5592500</v>
       </c>
       <c r="I54" s="3">
-        <v>5745600</v>
+        <v>5742000</v>
       </c>
       <c r="J54" s="3">
+        <v>5848200</v>
+      </c>
+      <c r="K54" s="3">
         <v>5940700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6049400</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,182 +2095,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>163700</v>
+        <v>160100</v>
       </c>
       <c r="E57" s="3">
-        <v>170100</v>
+        <v>166600</v>
       </c>
       <c r="F57" s="3">
-        <v>142500</v>
+        <v>173100</v>
       </c>
       <c r="G57" s="3">
-        <v>145400</v>
+        <v>145000</v>
       </c>
       <c r="H57" s="3">
-        <v>153700</v>
+        <v>148000</v>
       </c>
       <c r="I57" s="3">
-        <v>160500</v>
+        <v>156400</v>
       </c>
       <c r="J57" s="3">
+        <v>163400</v>
+      </c>
+      <c r="K57" s="3">
         <v>171300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>182400</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7300</v>
+        <v>7800</v>
       </c>
       <c r="E58" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="F58" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="G58" s="3">
         <v>7600</v>
       </c>
       <c r="H58" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="I58" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K58" s="3">
         <v>6900</v>
       </c>
-      <c r="J58" s="3">
-        <v>6900</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>392000</v>
+        <v>394800</v>
       </c>
       <c r="E59" s="3">
-        <v>405000</v>
+        <v>399000</v>
       </c>
       <c r="F59" s="3">
-        <v>445600</v>
+        <v>412200</v>
       </c>
       <c r="G59" s="3">
-        <v>446300</v>
+        <v>453600</v>
       </c>
       <c r="H59" s="3">
-        <v>447500</v>
+        <v>454300</v>
       </c>
       <c r="I59" s="3">
-        <v>443100</v>
+        <v>455500</v>
       </c>
       <c r="J59" s="3">
+        <v>451000</v>
+      </c>
+      <c r="K59" s="3">
         <v>462400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>483000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>563100</v>
+        <v>562700</v>
       </c>
       <c r="E60" s="3">
-        <v>582700</v>
+        <v>573100</v>
       </c>
       <c r="F60" s="3">
-        <v>595500</v>
+        <v>593100</v>
       </c>
       <c r="G60" s="3">
-        <v>599300</v>
+        <v>606200</v>
       </c>
       <c r="H60" s="3">
-        <v>608900</v>
+        <v>610000</v>
       </c>
       <c r="I60" s="3">
-        <v>610500</v>
+        <v>619700</v>
       </c>
       <c r="J60" s="3">
+        <v>621400</v>
+      </c>
+      <c r="K60" s="3">
         <v>640500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>672100</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16700</v>
+        <v>15800</v>
       </c>
       <c r="E61" s="3">
-        <v>17900</v>
+        <v>17000</v>
       </c>
       <c r="F61" s="3">
-        <v>19300</v>
+        <v>18200</v>
       </c>
       <c r="G61" s="3">
-        <v>20800</v>
+        <v>19700</v>
       </c>
       <c r="H61" s="3">
-        <v>20200</v>
+        <v>21200</v>
       </c>
       <c r="I61" s="3">
-        <v>22700</v>
+        <v>20600</v>
       </c>
       <c r="J61" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K61" s="3">
         <v>23500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1834300</v>
+        <v>1799600</v>
       </c>
       <c r="E62" s="3">
-        <v>1931500</v>
+        <v>1867100</v>
       </c>
       <c r="F62" s="3">
-        <v>1981100</v>
+        <v>1966000</v>
       </c>
       <c r="G62" s="3">
-        <v>2077600</v>
+        <v>2016500</v>
       </c>
       <c r="H62" s="3">
-        <v>2242900</v>
+        <v>2114700</v>
       </c>
       <c r="I62" s="3">
-        <v>2294500</v>
+        <v>2283000</v>
       </c>
       <c r="J62" s="3">
+        <v>2335500</v>
+      </c>
+      <c r="K62" s="3">
         <v>2418700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2527600</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2414100</v>
+        <v>2378100</v>
       </c>
       <c r="E66" s="3">
-        <v>2532000</v>
+        <v>2457200</v>
       </c>
       <c r="F66" s="3">
-        <v>2596000</v>
+        <v>2577200</v>
       </c>
       <c r="G66" s="3">
-        <v>2697700</v>
+        <v>2642400</v>
       </c>
       <c r="H66" s="3">
-        <v>2872100</v>
+        <v>2745900</v>
       </c>
       <c r="I66" s="3">
-        <v>2927600</v>
+        <v>2923400</v>
       </c>
       <c r="J66" s="3">
+        <v>2979900</v>
+      </c>
+      <c r="K66" s="3">
         <v>3082600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3224100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-357400</v>
+        <v>-540100</v>
       </c>
       <c r="E72" s="3">
-        <v>-399800</v>
+        <v>-363700</v>
       </c>
       <c r="F72" s="3">
-        <v>-398200</v>
+        <v>-406900</v>
       </c>
       <c r="G72" s="3">
-        <v>-399300</v>
+        <v>-405300</v>
       </c>
       <c r="H72" s="3">
-        <v>-425500</v>
+        <v>-406400</v>
       </c>
       <c r="I72" s="3">
-        <v>-376500</v>
+        <v>-433100</v>
       </c>
       <c r="J72" s="3">
+        <v>-383200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-336000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-365700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2846400</v>
+        <v>2720300</v>
       </c>
       <c r="E76" s="3">
-        <v>2800400</v>
+        <v>2897200</v>
       </c>
       <c r="F76" s="3">
-        <v>2800100</v>
+        <v>2850400</v>
       </c>
       <c r="G76" s="3">
-        <v>2796700</v>
+        <v>2850100</v>
       </c>
       <c r="H76" s="3">
-        <v>2769200</v>
+        <v>2846600</v>
       </c>
       <c r="I76" s="3">
-        <v>2818000</v>
+        <v>2818700</v>
       </c>
       <c r="J76" s="3">
+        <v>2868300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2858100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2825200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>22800</v>
+        <v>-223100</v>
       </c>
       <c r="E81" s="3">
-        <v>-20100</v>
+        <v>23200</v>
       </c>
       <c r="F81" s="3">
-        <v>-14100</v>
+        <v>-20500</v>
       </c>
       <c r="G81" s="3">
-        <v>17300</v>
+        <v>-14300</v>
       </c>
       <c r="H81" s="3">
-        <v>-68400</v>
+        <v>17600</v>
       </c>
       <c r="I81" s="3">
-        <v>-68100</v>
+        <v>-69600</v>
       </c>
       <c r="J81" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="K81" s="3">
         <v>9900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-61200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6200</v>
+        <v>23400</v>
       </c>
       <c r="E83" s="3">
-        <v>34300</v>
+        <v>6300</v>
       </c>
       <c r="F83" s="3">
-        <v>5800</v>
+        <v>35000</v>
       </c>
       <c r="G83" s="3">
         <v>5900</v>
       </c>
       <c r="H83" s="3">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="I83" s="3">
-        <v>16900</v>
+        <v>8700</v>
       </c>
       <c r="J83" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K83" s="3">
         <v>5300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-123700</v>
+        <v>-193700</v>
       </c>
       <c r="E89" s="3">
-        <v>-150000</v>
+        <v>-125900</v>
       </c>
       <c r="F89" s="3">
-        <v>-65600</v>
+        <v>-152700</v>
       </c>
       <c r="G89" s="3">
-        <v>-173300</v>
+        <v>-66700</v>
       </c>
       <c r="H89" s="3">
-        <v>-144900</v>
+        <v>-176400</v>
       </c>
       <c r="I89" s="3">
-        <v>-86700</v>
+        <v>-147500</v>
       </c>
       <c r="J89" s="3">
+        <v>-88200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-128200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4500</v>
+        <v>-7800</v>
       </c>
       <c r="E91" s="3">
-        <v>-6800</v>
+        <v>-11800</v>
       </c>
       <c r="F91" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="G91" s="3">
         <v>-9700</v>
       </c>
-      <c r="G91" s="3">
-        <v>-21500</v>
-      </c>
       <c r="H91" s="3">
-        <v>-15300</v>
+        <v>-22300</v>
       </c>
       <c r="I91" s="3">
-        <v>-11600</v>
+        <v>-15500</v>
       </c>
       <c r="J91" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-9000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18300</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-193200</v>
+        <v>19500</v>
       </c>
       <c r="E94" s="3">
-        <v>-156200</v>
+        <v>-196600</v>
       </c>
       <c r="F94" s="3">
-        <v>-987600</v>
+        <v>-159000</v>
       </c>
       <c r="G94" s="3">
-        <v>-478200</v>
+        <v>-1005200</v>
       </c>
       <c r="H94" s="3">
-        <v>329200</v>
+        <v>-486700</v>
       </c>
       <c r="I94" s="3">
-        <v>192800</v>
+        <v>335100</v>
       </c>
       <c r="J94" s="3">
+        <v>196200</v>
+      </c>
+      <c r="K94" s="3">
         <v>528900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>132900</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>800</v>
+        <v>-2100</v>
       </c>
       <c r="E100" s="3">
+        <v>900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1500</v>
+        <v>-4000</v>
       </c>
       <c r="E101" s="3">
-        <v>8700</v>
+        <v>1600</v>
       </c>
       <c r="F101" s="3">
-        <v>17300</v>
+        <v>8900</v>
       </c>
       <c r="G101" s="3">
-        <v>17100</v>
+        <v>17600</v>
       </c>
       <c r="H101" s="3">
-        <v>19600</v>
+        <v>17400</v>
       </c>
       <c r="I101" s="3">
-        <v>-10200</v>
+        <v>19900</v>
       </c>
       <c r="J101" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="K101" s="3">
         <v>33600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-36600</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-314500</v>
+        <v>-180300</v>
       </c>
       <c r="E102" s="3">
-        <v>-297800</v>
+        <v>-320100</v>
       </c>
       <c r="F102" s="3">
-        <v>-1035900</v>
+        <v>-303100</v>
       </c>
       <c r="G102" s="3">
-        <v>-635900</v>
+        <v>-1054400</v>
       </c>
       <c r="H102" s="3">
-        <v>202900</v>
+        <v>-647200</v>
       </c>
       <c r="I102" s="3">
-        <v>93800</v>
+        <v>206500</v>
       </c>
       <c r="J102" s="3">
+        <v>95500</v>
+      </c>
+      <c r="K102" s="3">
         <v>434700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>58500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GLPG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GLPG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>GLPG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,181 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>121200</v>
+        <v>179300</v>
       </c>
       <c r="E8" s="3">
-        <v>159400</v>
+        <v>202900</v>
       </c>
       <c r="F8" s="3">
-        <v>159000</v>
+        <v>122000</v>
       </c>
       <c r="G8" s="3">
-        <v>155100</v>
+        <v>160400</v>
       </c>
       <c r="H8" s="3">
-        <v>198600</v>
+        <v>160000</v>
       </c>
       <c r="I8" s="3">
+        <v>156100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>199900</v>
+      </c>
+      <c r="K8" s="3">
         <v>82900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>164900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>131400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>171100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F9" s="3">
         <v>4500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2600</v>
       </c>
-      <c r="F9" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3100</v>
-      </c>
       <c r="H9" s="3">
-        <v>1000</v>
+        <v>2900</v>
       </c>
       <c r="I9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K9" s="3">
         <v>600</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>116700</v>
+        <v>174700</v>
       </c>
       <c r="E10" s="3">
-        <v>156800</v>
+        <v>199100</v>
       </c>
       <c r="F10" s="3">
-        <v>156100</v>
+        <v>117500</v>
       </c>
       <c r="G10" s="3">
-        <v>151900</v>
+        <v>157900</v>
       </c>
       <c r="H10" s="3">
-        <v>197500</v>
+        <v>157200</v>
       </c>
       <c r="I10" s="3">
+        <v>153000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>198900</v>
+      </c>
+      <c r="K10" s="3">
         <v>82400</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +852,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>136500</v>
+        <v>117500</v>
       </c>
       <c r="E12" s="3">
-        <v>115300</v>
+        <v>112200</v>
       </c>
       <c r="F12" s="3">
-        <v>125100</v>
+        <v>137400</v>
       </c>
       <c r="G12" s="3">
-        <v>98600</v>
+        <v>116100</v>
       </c>
       <c r="H12" s="3">
-        <v>122400</v>
+        <v>125900</v>
       </c>
       <c r="I12" s="3">
+        <v>99200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>123200</v>
+      </c>
+      <c r="K12" s="3">
         <v>117600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>149500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>137500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>132800</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,25 +924,31 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
-        <v>28800</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>28900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
@@ -922,28 +962,34 @@
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>23400</v>
-      </c>
-      <c r="E15" s="3">
-        <v>6300</v>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F15" s="3">
+        <v>23500</v>
+      </c>
+      <c r="G15" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H15" s="3">
         <v>6200</v>
       </c>
-      <c r="G15" s="3">
-        <v>5900</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
+      <c r="I15" s="3">
+        <v>6000</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>5</v>
@@ -954,8 +1000,14 @@
       <c r="L15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1017,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>263800</v>
+        <v>190900</v>
       </c>
       <c r="E17" s="3">
-        <v>199900</v>
+        <v>179100</v>
       </c>
       <c r="F17" s="3">
-        <v>241100</v>
+        <v>265600</v>
       </c>
       <c r="G17" s="3">
-        <v>177900</v>
+        <v>201200</v>
       </c>
       <c r="H17" s="3">
-        <v>187600</v>
+        <v>242700</v>
       </c>
       <c r="I17" s="3">
+        <v>179100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>188900</v>
+      </c>
+      <c r="K17" s="3">
         <v>167100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>215200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>185100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>187400</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-142600</v>
+        <v>-11600</v>
       </c>
       <c r="E18" s="3">
-        <v>-40500</v>
+        <v>23900</v>
       </c>
       <c r="F18" s="3">
-        <v>-82200</v>
+        <v>-143600</v>
       </c>
       <c r="G18" s="3">
-        <v>-22800</v>
+        <v>-40800</v>
       </c>
       <c r="H18" s="3">
-        <v>10900</v>
+        <v>-82700</v>
       </c>
       <c r="I18" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-84200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-50300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-53700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,92 +1109,106 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-79800</v>
+        <v>31600</v>
       </c>
       <c r="E20" s="3">
-        <v>66300</v>
+        <v>1600</v>
       </c>
       <c r="F20" s="3">
-        <v>64900</v>
+        <v>-80300</v>
       </c>
       <c r="G20" s="3">
-        <v>12500</v>
+        <v>66800</v>
       </c>
       <c r="H20" s="3">
-        <v>9600</v>
+        <v>65300</v>
       </c>
       <c r="I20" s="3">
+        <v>12600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K20" s="3">
         <v>14800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-19600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>40300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-50700</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-199100</v>
-      </c>
-      <c r="E21" s="3">
-        <v>32100</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>17600</v>
+        <v>-200400</v>
       </c>
       <c r="G21" s="3">
+        <v>32400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>17800</v>
+      </c>
+      <c r="I21" s="3">
         <v>-4300</v>
       </c>
-      <c r="H21" s="3">
-        <v>26600</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-60700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-52700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-8100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-61200</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
         <v>1100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>2300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>2200</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>5</v>
@@ -1139,72 +1219,90 @@
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-223600</v>
+        <v>20000</v>
       </c>
       <c r="E23" s="3">
-        <v>24000</v>
+        <v>25400</v>
       </c>
       <c r="F23" s="3">
-        <v>-19600</v>
+        <v>-225100</v>
       </c>
       <c r="G23" s="3">
-        <v>-12500</v>
+        <v>24100</v>
       </c>
       <c r="H23" s="3">
-        <v>20600</v>
+        <v>-19700</v>
       </c>
       <c r="I23" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-69400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-70000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-13400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-67000</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
-        <v>700</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>800</v>
+      </c>
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
-      </c>
       <c r="J24" s="3">
-        <v>-700</v>
+        <v>3000</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
       </c>
       <c r="L24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1333,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-223100</v>
+        <v>5500</v>
       </c>
       <c r="E26" s="3">
-        <v>23200</v>
+        <v>25200</v>
       </c>
       <c r="F26" s="3">
-        <v>-20500</v>
+        <v>-224600</v>
       </c>
       <c r="G26" s="3">
-        <v>-14300</v>
+        <v>23400</v>
       </c>
       <c r="H26" s="3">
-        <v>17600</v>
+        <v>-20600</v>
       </c>
       <c r="I26" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-69600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-69300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-13600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-223100</v>
+        <v>5500</v>
       </c>
       <c r="E27" s="3">
-        <v>23200</v>
+        <v>25200</v>
       </c>
       <c r="F27" s="3">
-        <v>-20500</v>
+        <v>-224600</v>
       </c>
       <c r="G27" s="3">
-        <v>-14300</v>
+        <v>23400</v>
       </c>
       <c r="H27" s="3">
-        <v>17600</v>
+        <v>-20600</v>
       </c>
       <c r="I27" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-69600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-69300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-13600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,16 +1447,22 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1358,13 +1480,19 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>23500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1561,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>79800</v>
+        <v>-31600</v>
       </c>
       <c r="E32" s="3">
-        <v>-66300</v>
+        <v>-1600</v>
       </c>
       <c r="F32" s="3">
-        <v>-64900</v>
+        <v>80300</v>
       </c>
       <c r="G32" s="3">
-        <v>-12500</v>
+        <v>-66800</v>
       </c>
       <c r="H32" s="3">
-        <v>-9600</v>
+        <v>-65300</v>
       </c>
       <c r="I32" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-14800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>19600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-40300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-223100</v>
+        <v>5500</v>
       </c>
       <c r="E33" s="3">
-        <v>23200</v>
+        <v>25200</v>
       </c>
       <c r="F33" s="3">
-        <v>-20500</v>
+        <v>-224600</v>
       </c>
       <c r="G33" s="3">
-        <v>-14300</v>
+        <v>23400</v>
       </c>
       <c r="H33" s="3">
-        <v>17600</v>
+        <v>-20600</v>
       </c>
       <c r="I33" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-69600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-69300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>9900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-61200</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1675,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-223100</v>
+        <v>5500</v>
       </c>
       <c r="E35" s="3">
-        <v>23200</v>
+        <v>25200</v>
       </c>
       <c r="F35" s="3">
-        <v>-20500</v>
+        <v>-224600</v>
       </c>
       <c r="G35" s="3">
-        <v>-14300</v>
+        <v>23400</v>
       </c>
       <c r="H35" s="3">
-        <v>17600</v>
+        <v>-20600</v>
       </c>
       <c r="I35" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-69600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-69300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>9900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-61200</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,127 +1792,147 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>493300</v>
+        <v>52100</v>
       </c>
       <c r="E41" s="3">
-        <v>474100</v>
+        <v>134600</v>
       </c>
       <c r="F41" s="3">
-        <v>522300</v>
+        <v>496600</v>
       </c>
       <c r="G41" s="3">
-        <v>506900</v>
+        <v>477300</v>
       </c>
       <c r="H41" s="3">
-        <v>1320100</v>
+        <v>525800</v>
       </c>
       <c r="I41" s="3">
+        <v>510300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1329000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1238800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1325600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1265300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1311900</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3915500</v>
+        <v>4148800</v>
       </c>
       <c r="E42" s="3">
-        <v>4223400</v>
+        <v>4191000</v>
       </c>
       <c r="F42" s="3">
-        <v>4247200</v>
+        <v>3941700</v>
       </c>
       <c r="G42" s="3">
-        <v>4493600</v>
+        <v>4251600</v>
       </c>
       <c r="H42" s="3">
-        <v>3744700</v>
+        <v>4275600</v>
       </c>
       <c r="I42" s="3">
+        <v>4523600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3769800</v>
+      </c>
+      <c r="K42" s="3">
         <v>4010100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>4066000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>4146100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>4148900</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>71700</v>
+        <v>73300</v>
       </c>
       <c r="E43" s="3">
-        <v>58600</v>
+        <v>73300</v>
       </c>
       <c r="F43" s="3">
-        <v>69000</v>
+        <v>72200</v>
       </c>
       <c r="G43" s="3">
-        <v>84600</v>
+        <v>58900</v>
       </c>
       <c r="H43" s="3">
-        <v>138000</v>
+        <v>69400</v>
       </c>
       <c r="I43" s="3">
+        <v>85100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>138900</v>
+      </c>
+      <c r="K43" s="3">
         <v>136600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>122300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>190800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>182500</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>57000</v>
+        <v>53000</v>
       </c>
       <c r="E44" s="3">
-        <v>27500</v>
+        <v>56100</v>
       </c>
       <c r="F44" s="3">
-        <v>29100</v>
+        <v>57400</v>
       </c>
       <c r="G44" s="3">
-        <v>19800</v>
+        <v>27700</v>
       </c>
       <c r="H44" s="3">
-        <v>22200</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
+        <v>29300</v>
+      </c>
+      <c r="I44" s="3">
+        <v>19900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>22300</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>5</v>
@@ -1748,168 +1940,204 @@
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25100</v>
+        <v>44200</v>
       </c>
       <c r="E45" s="3">
-        <v>22000</v>
+        <v>49800</v>
       </c>
       <c r="F45" s="3">
-        <v>14200</v>
+        <v>25300</v>
       </c>
       <c r="G45" s="3">
-        <v>11200</v>
+        <v>22200</v>
       </c>
       <c r="H45" s="3">
-        <v>10700</v>
+        <v>14300</v>
       </c>
       <c r="I45" s="3">
+        <v>11300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K45" s="3">
         <v>16200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>10000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>16800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4562700</v>
+        <v>4371300</v>
       </c>
       <c r="E46" s="3">
-        <v>4805600</v>
+        <v>4504800</v>
       </c>
       <c r="F46" s="3">
-        <v>4881800</v>
+        <v>4593200</v>
       </c>
       <c r="G46" s="3">
-        <v>5116000</v>
+        <v>4837700</v>
       </c>
       <c r="H46" s="3">
-        <v>5235700</v>
+        <v>4914400</v>
       </c>
       <c r="I46" s="3">
+        <v>5150200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>5270700</v>
+      </c>
+      <c r="K46" s="3">
         <v>5401700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5524000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5619000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5680800</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>129200</v>
+        <v>141200</v>
       </c>
       <c r="E47" s="3">
-        <v>144200</v>
+        <v>134700</v>
       </c>
       <c r="F47" s="3">
-        <v>149600</v>
+        <v>130000</v>
       </c>
       <c r="G47" s="3">
-        <v>142900</v>
+        <v>145100</v>
       </c>
       <c r="H47" s="3">
-        <v>137000</v>
+        <v>150600</v>
       </c>
       <c r="I47" s="3">
+        <v>143800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>137900</v>
+      </c>
+      <c r="K47" s="3">
         <v>133300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>126300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>125100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>171000</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>166100</v>
+        <v>146100</v>
       </c>
       <c r="E48" s="3">
-        <v>162000</v>
+        <v>146200</v>
       </c>
       <c r="F48" s="3">
-        <v>160300</v>
+        <v>167200</v>
       </c>
       <c r="G48" s="3">
-        <v>157100</v>
+        <v>163000</v>
       </c>
       <c r="H48" s="3">
-        <v>148100</v>
+        <v>161400</v>
       </c>
       <c r="I48" s="3">
+        <v>158200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>149100</v>
+      </c>
+      <c r="K48" s="3">
         <v>133100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>120500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>117700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>109400</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>232800</v>
+        <v>223500</v>
       </c>
       <c r="E49" s="3">
-        <v>229900</v>
+        <v>228300</v>
       </c>
       <c r="F49" s="3">
-        <v>222500</v>
+        <v>234300</v>
       </c>
       <c r="G49" s="3">
-        <v>63700</v>
+        <v>231400</v>
       </c>
       <c r="H49" s="3">
-        <v>64700</v>
+        <v>224000</v>
       </c>
       <c r="I49" s="3">
+        <v>64100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>65200</v>
+      </c>
+      <c r="K49" s="3">
         <v>64200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>67900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>69600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2206,52 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E52" s="3">
         <v>7700</v>
       </c>
-      <c r="E52" s="3">
-        <v>12800</v>
-      </c>
       <c r="F52" s="3">
-        <v>13400</v>
+        <v>7700</v>
       </c>
       <c r="G52" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="H52" s="3">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="I52" s="3">
+        <v>12900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K52" s="3">
         <v>9600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>9600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>9400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2282,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5098400</v>
+        <v>4902700</v>
       </c>
       <c r="E54" s="3">
-        <v>5354400</v>
+        <v>5021700</v>
       </c>
       <c r="F54" s="3">
-        <v>5427700</v>
+        <v>5132500</v>
       </c>
       <c r="G54" s="3">
-        <v>5492500</v>
+        <v>5390200</v>
       </c>
       <c r="H54" s="3">
-        <v>5592500</v>
+        <v>5464000</v>
       </c>
       <c r="I54" s="3">
+        <v>5529300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5629900</v>
+      </c>
+      <c r="K54" s="3">
         <v>5742000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5848200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5940700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6049400</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,200 +2356,238 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>160100</v>
+        <v>142100</v>
       </c>
       <c r="E57" s="3">
-        <v>166600</v>
+        <v>169100</v>
       </c>
       <c r="F57" s="3">
-        <v>173100</v>
+        <v>161200</v>
       </c>
       <c r="G57" s="3">
-        <v>145000</v>
+        <v>167800</v>
       </c>
       <c r="H57" s="3">
-        <v>148000</v>
+        <v>174300</v>
       </c>
       <c r="I57" s="3">
+        <v>146000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>149000</v>
+      </c>
+      <c r="K57" s="3">
         <v>156400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>163400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>171300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>182400</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F58" s="3">
         <v>7800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>7500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>7700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>7600</v>
       </c>
       <c r="H58" s="3">
         <v>7800</v>
       </c>
       <c r="I58" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J58" s="3">
         <v>7800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
+        <v>7800</v>
+      </c>
+      <c r="L58" s="3">
         <v>7000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>6900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>394800</v>
+        <v>366200</v>
       </c>
       <c r="E59" s="3">
-        <v>399000</v>
+        <v>391500</v>
       </c>
       <c r="F59" s="3">
-        <v>412200</v>
+        <v>397500</v>
       </c>
       <c r="G59" s="3">
-        <v>453600</v>
+        <v>401700</v>
       </c>
       <c r="H59" s="3">
-        <v>454300</v>
+        <v>415000</v>
       </c>
       <c r="I59" s="3">
+        <v>456600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>457300</v>
+      </c>
+      <c r="K59" s="3">
         <v>455500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>451000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>462400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>483000</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>562700</v>
+        <v>515000</v>
       </c>
       <c r="E60" s="3">
-        <v>573100</v>
+        <v>566900</v>
       </c>
       <c r="F60" s="3">
-        <v>593100</v>
+        <v>566500</v>
       </c>
       <c r="G60" s="3">
-        <v>606200</v>
+        <v>577000</v>
       </c>
       <c r="H60" s="3">
-        <v>610000</v>
+        <v>597000</v>
       </c>
       <c r="I60" s="3">
+        <v>610200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>614100</v>
+      </c>
+      <c r="K60" s="3">
         <v>619700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>621400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>640500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>672100</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15800</v>
+        <v>10000</v>
       </c>
       <c r="E61" s="3">
-        <v>17000</v>
+        <v>11100</v>
       </c>
       <c r="F61" s="3">
-        <v>18200</v>
+        <v>15900</v>
       </c>
       <c r="G61" s="3">
-        <v>19700</v>
+        <v>17100</v>
       </c>
       <c r="H61" s="3">
-        <v>21200</v>
+        <v>18300</v>
       </c>
       <c r="I61" s="3">
+        <v>19800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>21300</v>
+      </c>
+      <c r="K61" s="3">
         <v>20600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>23100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>23500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1799600</v>
+        <v>1576400</v>
       </c>
       <c r="E62" s="3">
-        <v>1867100</v>
+        <v>1663500</v>
       </c>
       <c r="F62" s="3">
-        <v>1966000</v>
+        <v>1811600</v>
       </c>
       <c r="G62" s="3">
-        <v>2016500</v>
+        <v>1879600</v>
       </c>
       <c r="H62" s="3">
-        <v>2114700</v>
+        <v>1979100</v>
       </c>
       <c r="I62" s="3">
+        <v>2030000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2128800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2283000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2335500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2418700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2527600</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2694,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2378100</v>
+        <v>2101400</v>
       </c>
       <c r="E66" s="3">
-        <v>2457200</v>
+        <v>2241500</v>
       </c>
       <c r="F66" s="3">
-        <v>2577200</v>
+        <v>2394000</v>
       </c>
       <c r="G66" s="3">
-        <v>2642400</v>
+        <v>2473600</v>
       </c>
       <c r="H66" s="3">
-        <v>2745900</v>
+        <v>2594500</v>
       </c>
       <c r="I66" s="3">
+        <v>2660100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2764200</v>
+      </c>
+      <c r="K66" s="3">
         <v>2923400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2979900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3082600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3224100</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2900,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-540100</v>
+        <v>-483200</v>
       </c>
       <c r="E72" s="3">
-        <v>-363700</v>
+        <v>-503700</v>
       </c>
       <c r="F72" s="3">
-        <v>-406900</v>
+        <v>-543700</v>
       </c>
       <c r="G72" s="3">
-        <v>-405300</v>
+        <v>-366200</v>
       </c>
       <c r="H72" s="3">
-        <v>-406400</v>
+        <v>-409700</v>
       </c>
       <c r="I72" s="3">
+        <v>-408000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-409100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-433100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-383200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-336000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-365700</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3052,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2720300</v>
+        <v>2801300</v>
       </c>
       <c r="E76" s="3">
-        <v>2897200</v>
+        <v>2780300</v>
       </c>
       <c r="F76" s="3">
-        <v>2850400</v>
+        <v>2738500</v>
       </c>
       <c r="G76" s="3">
-        <v>2850100</v>
+        <v>2916600</v>
       </c>
       <c r="H76" s="3">
-        <v>2846600</v>
+        <v>2869500</v>
       </c>
       <c r="I76" s="3">
+        <v>2869200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2865700</v>
+      </c>
+      <c r="K76" s="3">
         <v>2818700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2868300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2858100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2825200</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3128,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-223100</v>
+        <v>5500</v>
       </c>
       <c r="E81" s="3">
-        <v>23200</v>
+        <v>25200</v>
       </c>
       <c r="F81" s="3">
-        <v>-20500</v>
+        <v>-224600</v>
       </c>
       <c r="G81" s="3">
-        <v>-14300</v>
+        <v>23400</v>
       </c>
       <c r="H81" s="3">
-        <v>17600</v>
+        <v>-20600</v>
       </c>
       <c r="I81" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-69600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-69300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>9900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-61200</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3229,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>23400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>6300</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F83" s="3">
-        <v>35000</v>
+        <v>23500</v>
       </c>
       <c r="G83" s="3">
-        <v>5900</v>
+        <v>6400</v>
       </c>
       <c r="H83" s="3">
+        <v>35200</v>
+      </c>
+      <c r="I83" s="3">
         <v>6000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K83" s="3">
         <v>8700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>17200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>5300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3453,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-193700</v>
+        <v>-136000</v>
       </c>
       <c r="E89" s="3">
-        <v>-125900</v>
+        <v>-102800</v>
       </c>
       <c r="F89" s="3">
-        <v>-152700</v>
+        <v>-195000</v>
       </c>
       <c r="G89" s="3">
-        <v>-66700</v>
+        <v>-126800</v>
       </c>
       <c r="H89" s="3">
-        <v>-176400</v>
+        <v>-153700</v>
       </c>
       <c r="I89" s="3">
+        <v>-67200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-177500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-147500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-88200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-128200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3511,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-11800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-7700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-9700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-22300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-15500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-11300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-9000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-18300</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3621,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>19500</v>
+        <v>109400</v>
       </c>
       <c r="E94" s="3">
-        <v>-196600</v>
+        <v>-312900</v>
       </c>
       <c r="F94" s="3">
-        <v>-159000</v>
+        <v>19600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1005200</v>
+        <v>-197900</v>
       </c>
       <c r="H94" s="3">
-        <v>-486700</v>
+        <v>-160000</v>
       </c>
       <c r="I94" s="3">
+        <v>-1012000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-490000</v>
+      </c>
+      <c r="K94" s="3">
         <v>335100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>196200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>528900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>132900</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3827,124 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-1500</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>1600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>8900</v>
       </c>
-      <c r="G101" s="3">
-        <v>17600</v>
-      </c>
-      <c r="H101" s="3">
-        <v>17400</v>
-      </c>
       <c r="I101" s="3">
+        <v>17700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K101" s="3">
         <v>19900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-10400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>33600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-36600</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-180300</v>
+        <v>-28300</v>
       </c>
       <c r="E102" s="3">
-        <v>-320100</v>
+        <v>-416300</v>
       </c>
       <c r="F102" s="3">
-        <v>-303100</v>
+        <v>-181500</v>
       </c>
       <c r="G102" s="3">
-        <v>-1054400</v>
+        <v>-322300</v>
       </c>
       <c r="H102" s="3">
-        <v>-647200</v>
+        <v>-305200</v>
       </c>
       <c r="I102" s="3">
+        <v>-1061400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-651600</v>
+      </c>
+      <c r="K102" s="3">
         <v>206500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>95500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>434700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>58500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GLPG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GLPG_QTR_FIN.xlsx
@@ -730,25 +730,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>179300</v>
+        <v>179500</v>
       </c>
       <c r="E8" s="3">
-        <v>202900</v>
+        <v>203100</v>
       </c>
       <c r="F8" s="3">
-        <v>122000</v>
+        <v>122100</v>
       </c>
       <c r="G8" s="3">
-        <v>160400</v>
+        <v>160600</v>
       </c>
       <c r="H8" s="3">
-        <v>160000</v>
+        <v>160100</v>
       </c>
       <c r="I8" s="3">
-        <v>156100</v>
+        <v>156200</v>
       </c>
       <c r="J8" s="3">
-        <v>199900</v>
+        <v>200100</v>
       </c>
       <c r="K8" s="3">
         <v>82900</v>
@@ -806,25 +806,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>174700</v>
+        <v>174800</v>
       </c>
       <c r="E10" s="3">
-        <v>199100</v>
+        <v>199200</v>
       </c>
       <c r="F10" s="3">
-        <v>117500</v>
+        <v>117600</v>
       </c>
       <c r="G10" s="3">
-        <v>157900</v>
+        <v>158000</v>
       </c>
       <c r="H10" s="3">
-        <v>157200</v>
+        <v>157300</v>
       </c>
       <c r="I10" s="3">
-        <v>153000</v>
+        <v>153100</v>
       </c>
       <c r="J10" s="3">
-        <v>198900</v>
+        <v>199000</v>
       </c>
       <c r="K10" s="3">
         <v>82400</v>
@@ -860,25 +860,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>117500</v>
+        <v>117600</v>
       </c>
       <c r="E12" s="3">
-        <v>112200</v>
+        <v>112300</v>
       </c>
       <c r="F12" s="3">
-        <v>137400</v>
+        <v>137500</v>
       </c>
       <c r="G12" s="3">
-        <v>116100</v>
+        <v>116200</v>
       </c>
       <c r="H12" s="3">
-        <v>125900</v>
+        <v>126100</v>
       </c>
       <c r="I12" s="3">
-        <v>99200</v>
+        <v>99300</v>
       </c>
       <c r="J12" s="3">
-        <v>123200</v>
+        <v>123300</v>
       </c>
       <c r="K12" s="3">
         <v>117600</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>28900</v>
+        <v>29000</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
@@ -980,7 +980,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="3">
-        <v>23500</v>
+        <v>23600</v>
       </c>
       <c r="G15" s="3">
         <v>6400</v>
@@ -1025,25 +1025,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>190900</v>
+        <v>191100</v>
       </c>
       <c r="E17" s="3">
-        <v>179100</v>
+        <v>179200</v>
       </c>
       <c r="F17" s="3">
-        <v>265600</v>
+        <v>265800</v>
       </c>
       <c r="G17" s="3">
-        <v>201200</v>
+        <v>201400</v>
       </c>
       <c r="H17" s="3">
-        <v>242700</v>
+        <v>242900</v>
       </c>
       <c r="I17" s="3">
-        <v>179100</v>
+        <v>179200</v>
       </c>
       <c r="J17" s="3">
-        <v>188900</v>
+        <v>189100</v>
       </c>
       <c r="K17" s="3">
         <v>167100</v>
@@ -1069,13 +1069,13 @@
         <v>23900</v>
       </c>
       <c r="F18" s="3">
-        <v>-143600</v>
+        <v>-143700</v>
       </c>
       <c r="G18" s="3">
         <v>-40800</v>
       </c>
       <c r="H18" s="3">
-        <v>-82700</v>
+        <v>-82800</v>
       </c>
       <c r="I18" s="3">
         <v>-23000</v>
@@ -1117,13 +1117,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>31600</v>
+        <v>31700</v>
       </c>
       <c r="E20" s="3">
         <v>1600</v>
       </c>
       <c r="F20" s="3">
-        <v>-80300</v>
+        <v>-80400</v>
       </c>
       <c r="G20" s="3">
         <v>66800</v>
@@ -1161,7 +1161,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>-200400</v>
+        <v>-200600</v>
       </c>
       <c r="G21" s="3">
         <v>32400</v>
@@ -1234,16 +1234,16 @@
         <v>20000</v>
       </c>
       <c r="E23" s="3">
-        <v>25400</v>
+        <v>25500</v>
       </c>
       <c r="F23" s="3">
-        <v>-225100</v>
+        <v>-225200</v>
       </c>
       <c r="G23" s="3">
         <v>24100</v>
       </c>
       <c r="H23" s="3">
-        <v>-19700</v>
+        <v>-19800</v>
       </c>
       <c r="I23" s="3">
         <v>-12600</v>
@@ -1351,7 +1351,7 @@
         <v>25200</v>
       </c>
       <c r="F26" s="3">
-        <v>-224600</v>
+        <v>-224800</v>
       </c>
       <c r="G26" s="3">
         <v>23400</v>
@@ -1389,7 +1389,7 @@
         <v>25200</v>
       </c>
       <c r="F27" s="3">
-        <v>-224600</v>
+        <v>-224800</v>
       </c>
       <c r="G27" s="3">
         <v>23400</v>
@@ -1573,13 +1573,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-31600</v>
+        <v>-31700</v>
       </c>
       <c r="E32" s="3">
         <v>-1600</v>
       </c>
       <c r="F32" s="3">
-        <v>80300</v>
+        <v>80400</v>
       </c>
       <c r="G32" s="3">
         <v>-66800</v>
@@ -1617,7 +1617,7 @@
         <v>25200</v>
       </c>
       <c r="F33" s="3">
-        <v>-224600</v>
+        <v>-224800</v>
       </c>
       <c r="G33" s="3">
         <v>23400</v>
@@ -1693,7 +1693,7 @@
         <v>25200</v>
       </c>
       <c r="F35" s="3">
-        <v>-224600</v>
+        <v>-224800</v>
       </c>
       <c r="G35" s="3">
         <v>23400</v>
@@ -1803,22 +1803,22 @@
         <v>52100</v>
       </c>
       <c r="E41" s="3">
-        <v>134600</v>
+        <v>134700</v>
       </c>
       <c r="F41" s="3">
-        <v>496600</v>
+        <v>497100</v>
       </c>
       <c r="G41" s="3">
-        <v>477300</v>
+        <v>477700</v>
       </c>
       <c r="H41" s="3">
-        <v>525800</v>
+        <v>526300</v>
       </c>
       <c r="I41" s="3">
-        <v>510300</v>
+        <v>510700</v>
       </c>
       <c r="J41" s="3">
-        <v>1329000</v>
+        <v>1330100</v>
       </c>
       <c r="K41" s="3">
         <v>1238800</v>
@@ -1838,25 +1838,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4148800</v>
+        <v>4152200</v>
       </c>
       <c r="E42" s="3">
-        <v>4191000</v>
+        <v>4194500</v>
       </c>
       <c r="F42" s="3">
-        <v>3941700</v>
+        <v>3945000</v>
       </c>
       <c r="G42" s="3">
-        <v>4251600</v>
+        <v>4255200</v>
       </c>
       <c r="H42" s="3">
-        <v>4275600</v>
+        <v>4279200</v>
       </c>
       <c r="I42" s="3">
-        <v>4523600</v>
+        <v>4527400</v>
       </c>
       <c r="J42" s="3">
-        <v>3769800</v>
+        <v>3772900</v>
       </c>
       <c r="K42" s="3">
         <v>4010100</v>
@@ -1885,16 +1885,16 @@
         <v>72200</v>
       </c>
       <c r="G43" s="3">
-        <v>58900</v>
+        <v>59000</v>
       </c>
       <c r="H43" s="3">
-        <v>69400</v>
+        <v>69500</v>
       </c>
       <c r="I43" s="3">
-        <v>85100</v>
+        <v>85200</v>
       </c>
       <c r="J43" s="3">
-        <v>138900</v>
+        <v>139100</v>
       </c>
       <c r="K43" s="3">
         <v>136600</v>
@@ -1917,7 +1917,7 @@
         <v>53000</v>
       </c>
       <c r="E44" s="3">
-        <v>56100</v>
+        <v>56200</v>
       </c>
       <c r="F44" s="3">
         <v>57400</v>
@@ -1929,7 +1929,7 @@
         <v>29300</v>
       </c>
       <c r="I44" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="J44" s="3">
         <v>22300</v>
@@ -1990,25 +1990,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4371300</v>
+        <v>4374900</v>
       </c>
       <c r="E46" s="3">
-        <v>4504800</v>
+        <v>4508500</v>
       </c>
       <c r="F46" s="3">
-        <v>4593200</v>
+        <v>4597000</v>
       </c>
       <c r="G46" s="3">
-        <v>4837700</v>
+        <v>4841700</v>
       </c>
       <c r="H46" s="3">
-        <v>4914400</v>
+        <v>4918500</v>
       </c>
       <c r="I46" s="3">
-        <v>5150200</v>
+        <v>5154500</v>
       </c>
       <c r="J46" s="3">
-        <v>5270700</v>
+        <v>5275100</v>
       </c>
       <c r="K46" s="3">
         <v>5401700</v>
@@ -2028,25 +2028,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>141200</v>
+        <v>141300</v>
       </c>
       <c r="E47" s="3">
-        <v>134700</v>
+        <v>134900</v>
       </c>
       <c r="F47" s="3">
-        <v>130000</v>
+        <v>130100</v>
       </c>
       <c r="G47" s="3">
-        <v>145100</v>
+        <v>145200</v>
       </c>
       <c r="H47" s="3">
-        <v>150600</v>
+        <v>150800</v>
       </c>
       <c r="I47" s="3">
-        <v>143800</v>
+        <v>143900</v>
       </c>
       <c r="J47" s="3">
-        <v>137900</v>
+        <v>138000</v>
       </c>
       <c r="K47" s="3">
         <v>133300</v>
@@ -2066,25 +2066,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>146100</v>
+        <v>146200</v>
       </c>
       <c r="E48" s="3">
-        <v>146200</v>
+        <v>146400</v>
       </c>
       <c r="F48" s="3">
-        <v>167200</v>
+        <v>167400</v>
       </c>
       <c r="G48" s="3">
-        <v>163000</v>
+        <v>163200</v>
       </c>
       <c r="H48" s="3">
-        <v>161400</v>
+        <v>161500</v>
       </c>
       <c r="I48" s="3">
-        <v>158200</v>
+        <v>158300</v>
       </c>
       <c r="J48" s="3">
-        <v>149100</v>
+        <v>149200</v>
       </c>
       <c r="K48" s="3">
         <v>133100</v>
@@ -2104,22 +2104,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>223500</v>
+        <v>223700</v>
       </c>
       <c r="E49" s="3">
-        <v>228300</v>
+        <v>228500</v>
       </c>
       <c r="F49" s="3">
-        <v>234300</v>
+        <v>234500</v>
       </c>
       <c r="G49" s="3">
-        <v>231400</v>
+        <v>231600</v>
       </c>
       <c r="H49" s="3">
-        <v>224000</v>
+        <v>224200</v>
       </c>
       <c r="I49" s="3">
-        <v>64100</v>
+        <v>64200</v>
       </c>
       <c r="J49" s="3">
         <v>65200</v>
@@ -2294,25 +2294,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4902700</v>
+        <v>4906700</v>
       </c>
       <c r="E54" s="3">
-        <v>5021700</v>
+        <v>5025900</v>
       </c>
       <c r="F54" s="3">
-        <v>5132500</v>
+        <v>5136800</v>
       </c>
       <c r="G54" s="3">
-        <v>5390200</v>
+        <v>5394700</v>
       </c>
       <c r="H54" s="3">
-        <v>5464000</v>
+        <v>5468500</v>
       </c>
       <c r="I54" s="3">
-        <v>5529300</v>
+        <v>5533800</v>
       </c>
       <c r="J54" s="3">
-        <v>5629900</v>
+        <v>5634600</v>
       </c>
       <c r="K54" s="3">
         <v>5742000</v>
@@ -2364,25 +2364,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>142100</v>
+        <v>142200</v>
       </c>
       <c r="E57" s="3">
-        <v>169100</v>
+        <v>169200</v>
       </c>
       <c r="F57" s="3">
-        <v>161200</v>
+        <v>161300</v>
       </c>
       <c r="G57" s="3">
-        <v>167800</v>
+        <v>167900</v>
       </c>
       <c r="H57" s="3">
-        <v>174300</v>
+        <v>174400</v>
       </c>
       <c r="I57" s="3">
-        <v>146000</v>
+        <v>146100</v>
       </c>
       <c r="J57" s="3">
-        <v>149000</v>
+        <v>149100</v>
       </c>
       <c r="K57" s="3">
         <v>156400</v>
@@ -2440,25 +2440,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>366200</v>
+        <v>366500</v>
       </c>
       <c r="E59" s="3">
-        <v>391500</v>
+        <v>391900</v>
       </c>
       <c r="F59" s="3">
-        <v>397500</v>
+        <v>397800</v>
       </c>
       <c r="G59" s="3">
-        <v>401700</v>
+        <v>402000</v>
       </c>
       <c r="H59" s="3">
-        <v>415000</v>
+        <v>415300</v>
       </c>
       <c r="I59" s="3">
-        <v>456600</v>
+        <v>457000</v>
       </c>
       <c r="J59" s="3">
-        <v>457300</v>
+        <v>457700</v>
       </c>
       <c r="K59" s="3">
         <v>455500</v>
@@ -2478,25 +2478,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>515000</v>
+        <v>515500</v>
       </c>
       <c r="E60" s="3">
-        <v>566900</v>
+        <v>567400</v>
       </c>
       <c r="F60" s="3">
-        <v>566500</v>
+        <v>567000</v>
       </c>
       <c r="G60" s="3">
-        <v>577000</v>
+        <v>577400</v>
       </c>
       <c r="H60" s="3">
-        <v>597000</v>
+        <v>597500</v>
       </c>
       <c r="I60" s="3">
-        <v>610200</v>
+        <v>610700</v>
       </c>
       <c r="J60" s="3">
-        <v>614100</v>
+        <v>614600</v>
       </c>
       <c r="K60" s="3">
         <v>619700</v>
@@ -2554,25 +2554,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1576400</v>
+        <v>1577700</v>
       </c>
       <c r="E62" s="3">
-        <v>1663500</v>
+        <v>1664900</v>
       </c>
       <c r="F62" s="3">
-        <v>1811600</v>
+        <v>1813100</v>
       </c>
       <c r="G62" s="3">
-        <v>1879600</v>
+        <v>1881100</v>
       </c>
       <c r="H62" s="3">
-        <v>1979100</v>
+        <v>1980800</v>
       </c>
       <c r="I62" s="3">
-        <v>2030000</v>
+        <v>2031700</v>
       </c>
       <c r="J62" s="3">
-        <v>2128800</v>
+        <v>2130600</v>
       </c>
       <c r="K62" s="3">
         <v>2283000</v>
@@ -2706,25 +2706,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2101400</v>
+        <v>2103200</v>
       </c>
       <c r="E66" s="3">
-        <v>2241500</v>
+        <v>2243300</v>
       </c>
       <c r="F66" s="3">
-        <v>2394000</v>
+        <v>2396000</v>
       </c>
       <c r="G66" s="3">
-        <v>2473600</v>
+        <v>2475700</v>
       </c>
       <c r="H66" s="3">
-        <v>2594500</v>
+        <v>2596600</v>
       </c>
       <c r="I66" s="3">
-        <v>2660100</v>
+        <v>2662300</v>
       </c>
       <c r="J66" s="3">
-        <v>2764200</v>
+        <v>2766500</v>
       </c>
       <c r="K66" s="3">
         <v>2923400</v>
@@ -2912,25 +2912,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-483200</v>
+        <v>-483600</v>
       </c>
       <c r="E72" s="3">
-        <v>-503700</v>
+        <v>-504100</v>
       </c>
       <c r="F72" s="3">
-        <v>-543700</v>
+        <v>-544200</v>
       </c>
       <c r="G72" s="3">
-        <v>-366200</v>
+        <v>-366500</v>
       </c>
       <c r="H72" s="3">
-        <v>-409700</v>
+        <v>-410000</v>
       </c>
       <c r="I72" s="3">
-        <v>-408000</v>
+        <v>-408300</v>
       </c>
       <c r="J72" s="3">
-        <v>-409100</v>
+        <v>-409500</v>
       </c>
       <c r="K72" s="3">
         <v>-433100</v>
@@ -3064,25 +3064,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2801300</v>
+        <v>2803600</v>
       </c>
       <c r="E76" s="3">
-        <v>2780300</v>
+        <v>2782600</v>
       </c>
       <c r="F76" s="3">
-        <v>2738500</v>
+        <v>2740700</v>
       </c>
       <c r="G76" s="3">
-        <v>2916600</v>
+        <v>2919000</v>
       </c>
       <c r="H76" s="3">
-        <v>2869500</v>
+        <v>2871900</v>
       </c>
       <c r="I76" s="3">
-        <v>2869200</v>
+        <v>2871500</v>
       </c>
       <c r="J76" s="3">
-        <v>2865700</v>
+        <v>2868000</v>
       </c>
       <c r="K76" s="3">
         <v>2818700</v>
@@ -3189,7 +3189,7 @@
         <v>25200</v>
       </c>
       <c r="F81" s="3">
-        <v>-224600</v>
+        <v>-224800</v>
       </c>
       <c r="G81" s="3">
         <v>23400</v>
@@ -3243,7 +3243,7 @@
         <v>5</v>
       </c>
       <c r="F83" s="3">
-        <v>23500</v>
+        <v>23600</v>
       </c>
       <c r="G83" s="3">
         <v>6400</v>
@@ -3465,25 +3465,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-136000</v>
+        <v>-136100</v>
       </c>
       <c r="E89" s="3">
-        <v>-102800</v>
+        <v>-102900</v>
       </c>
       <c r="F89" s="3">
-        <v>-195000</v>
+        <v>-195200</v>
       </c>
       <c r="G89" s="3">
-        <v>-126800</v>
+        <v>-126900</v>
       </c>
       <c r="H89" s="3">
-        <v>-153700</v>
+        <v>-153800</v>
       </c>
       <c r="I89" s="3">
         <v>-67200</v>
       </c>
       <c r="J89" s="3">
-        <v>-177500</v>
+        <v>-177700</v>
       </c>
       <c r="K89" s="3">
         <v>-147500</v>
@@ -3633,25 +3633,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>109400</v>
+        <v>109500</v>
       </c>
       <c r="E94" s="3">
-        <v>-312900</v>
+        <v>-313200</v>
       </c>
       <c r="F94" s="3">
-        <v>19600</v>
+        <v>19700</v>
       </c>
       <c r="G94" s="3">
-        <v>-197900</v>
+        <v>-198100</v>
       </c>
       <c r="H94" s="3">
-        <v>-160000</v>
+        <v>-160200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1012000</v>
+        <v>-1012800</v>
       </c>
       <c r="J94" s="3">
-        <v>-490000</v>
+        <v>-490400</v>
       </c>
       <c r="K94" s="3">
         <v>335100</v>
@@ -3883,7 +3883,7 @@
         <v>-300</v>
       </c>
       <c r="F101" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="G101" s="3">
         <v>1600</v>
@@ -3918,22 +3918,22 @@
         <v>-28300</v>
       </c>
       <c r="E102" s="3">
-        <v>-416300</v>
+        <v>-416600</v>
       </c>
       <c r="F102" s="3">
-        <v>-181500</v>
+        <v>-181600</v>
       </c>
       <c r="G102" s="3">
-        <v>-322300</v>
+        <v>-322500</v>
       </c>
       <c r="H102" s="3">
-        <v>-305200</v>
+        <v>-305400</v>
       </c>
       <c r="I102" s="3">
-        <v>-1061400</v>
+        <v>-1062300</v>
       </c>
       <c r="J102" s="3">
-        <v>-651600</v>
+        <v>-652100</v>
       </c>
       <c r="K102" s="3">
         <v>206500</v>
